--- a/BalanceSheet/HZNP_bal.xlsx
+++ b/BalanceSheet/HZNP_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1878000.0</v>
+        <v>75000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-10986000.0</v>
+        <v>77000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>2101000.0</v>
+        <v>66000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-14444000.0</v>
+        <v>68000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>4736000.0</v>
+        <v>54000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>58505000.0</v>
@@ -2094,19 +2094,19 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>-1694000.0</v>
+        <v>38000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>-65846000.0</v>
+        <v>39000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>55004000.0</v>
+        <v>106000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>28551000.0</v>
+        <v>50000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>-5385000.0</v>
+        <v>22000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>26906000.0</v>
@@ -3426,19 +3426,19 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>-25412000.0</v>
+        <v>-494000000.0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>-3480000.0</v>
+        <v>-469000000.0</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>-2479000.0</v>
+        <v>-465000000.0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>-2082000.0</v>
+        <v>-463000000.0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>-573839000.0</v>
+        <v>-461000000.0</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>112968000.0</v>
